--- a/data/instance/100/schedule_21.xlsx
+++ b/data/instance/100/schedule_21.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yw\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jianingju/Downloads/URECA/Project files/Bi-objective 2016 v1/data/instance/100/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C88410-44B0-4C60-B9C5-E240F3371DC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6C461E-5B8C-8B4B-9887-D1DA6E5B6C69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="525" windowWidth="16110" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="400" yWindow="520" windowWidth="16120" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="FlightSchedule" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
@@ -573,17 +573,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -625,7 +625,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -928,17 +928,17 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="9" style="1" customWidth="1"/>
     <col min="3" max="6" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -964,7 +964,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -990,7 +990,7 @@
         <v>5.7472840295336329</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>9.3463885150364447</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>3.8335251414072795</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>1.8818094718359211</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>5.7415425789148662</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>3.8889502462164307</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>1.3696070512781557</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>8.3439335324182906</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>2.3787342647769254</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>8.5681386090189857</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>5.7443882274607443</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>9.1463831086991476</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>5.1904403347392947</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>4.8926672057114473</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>6.2684916376210182</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>6.1552351539650552</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>3.1559043258259605</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>3.0693741414334679</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>5.2705876800361189</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>7.977614660667677</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>1.7072891844794511</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>2.8009191861869986</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>1.4966028802843609</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>3.1794052942948636</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>1.5496465058948425</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>8.6139967769448447</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>1.7785012484114364</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>3.9512647874233338</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>4.2394639188470764</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>9.5310534455105689</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>2.8468136349412165</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>1.8031150590159817</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>4.2796178378625216</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>3.3567122943484669</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>9.4657745615900524</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>5.3740224384644772</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>3.9512129075839151</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>6.4838984524920873</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>5.3789837831759462</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>4.8133837320254642</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>6.8112296816717199</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>5.1616188323444412</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>9.0015206515642774</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>5.2546773052773617</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>4.7537509431371969</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>2.7512406954099684</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>3.5664011264536208</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>1.1591050721272773</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>6.9118135784542556</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>3.4172551848905726</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>7.5614859392476177</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>6.6284233070051588</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>7.4446528384377633</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>9.5208383546010094</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>5.6370502906229945</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>3.5534485959329998</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>9.9743808258903197</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>6.9234148467346355</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>5.6164632316272218</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>7.4910802561050565</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>6.0410465539577434</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>1.4075617943629193</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>8.5593756801974621</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>7.4297244182872069</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>7.0995515164597505</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>2.9730871443124602</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>7.9387669973728805</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>7.9009902655756008</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>9.9310330719781881</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>9.2445989675861</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>2.3040311753796425</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>8.6940503133312355</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>9.3996954022554124</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>4.9072404446406086</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>4.0116422051994869</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>7.1547889297334839</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>3.6503463667556164</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>4.4542475615728456</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>8.7928951408743394</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>2.223553450602215</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>4.120146024950456</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>1.6986024881715911</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>2.8138816544641814</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>7.9031249037489237</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>4.4265663766162122</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>2.6713100910557248</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>1.5089550479164568</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>5.1952768098859581</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -3278,7 +3278,7 @@
         <v>8.6236264014094512</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>7.614295469046759</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>5.061154682244819</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>7.206128774576154</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>4.7696919840996381</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>6.8672718255042122</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>4.8981980264922971</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>1.353853289693105</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>7.5590336558555231</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>5.0909697835012544</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>8.4450730929394418</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>100</v>
       </c>
